--- a/website_content_creation/authors/Emma-Isabella_Perry/Author_form.xlsx
+++ b/website_content_creation/authors/Emma-Isabella_Perry/Author_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Emma-Isabella_Perry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{399F1FEA-8655-4E6C-96E7-56F0F6422CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109619D9-C9C2-4295-A528-359AF78F35CB}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{399F1FEA-8655-4E6C-96E7-56F0F6422CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{882AE7EA-D1CC-4B99-A3C0-4D1781E9412B}"/>
   <bookViews>
-    <workbookView xWindow="-7575" yWindow="-13245" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="1716" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>eiperry@mun.ca</t>
   </si>
   <si>
-    <t>Cory Sheppard and Erik Emilson</t>
-  </si>
-  <si>
     <t>Memorial University, Grenfell Campus</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Environmental Science Biology Stream</t>
+  </si>
+  <si>
+    <t>Cory Wallace</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
   <dimension ref="A1:C1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -916,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -936,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="11">
         <v>2028</v>
@@ -1045,17 +1045,17 @@
         <v>16</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/website_content_creation/authors/Emma-Isabella_Perry/Author_form.xlsx
+++ b/website_content_creation/authors/Emma-Isabella_Perry/Author_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Emma-Isabella_Perry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{399F1FEA-8655-4E6C-96E7-56F0F6422CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{882AE7EA-D1CC-4B99-A3C0-4D1781E9412B}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{399F1FEA-8655-4E6C-96E7-56F0F6422CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF9E17E-4738-493A-A674-271DB4B4A844}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1716" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="1536" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Website Profile Form</t>
   </si>
@@ -145,13 +145,19 @@
   </si>
   <si>
     <t>Cory Wallace</t>
+  </si>
+  <si>
+    <t>Memorial University, Grenfell campus</t>
+  </si>
+  <si>
+    <t>https://mun.ca/grenfellcampus/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,12 +197,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
@@ -215,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -430,17 +430,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -559,40 +548,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -812,7 +801,7 @@
   <dimension ref="A1:C1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -845,7 +834,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
@@ -853,13 +842,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="5"/>
@@ -868,7 +857,7 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -885,13 +874,13 @@
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3"/>
@@ -900,7 +889,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="3"/>
@@ -912,10 +901,10 @@
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
@@ -932,7 +921,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -948,28 +937,28 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="11">
@@ -998,12 +987,12 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="40"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
@@ -1012,20 +1001,24 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
-      <c r="B31" s="22"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
@@ -1041,28 +1034,28 @@
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="25"/>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="20"/>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
@@ -2038,6 +2031,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{4FF654BD-E6E4-4F86-ACFB-440809603E77}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{9ED97A54-41CA-4F49-B010-4EE125EBA25B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
